--- a/docs/doc_workbook1.xlsx
+++ b/docs/doc_workbook1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="9480" windowHeight="3720" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,17 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
     <sheet name="Feuil1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="192">
   <si>
     <t>hostname</t>
   </si>
@@ -474,9 +479,6 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Administrative</t>
   </si>
   <si>
@@ -495,9 +497,6 @@
     <t>DNS</t>
   </si>
   <si>
-    <t>ubuntu.intra</t>
-  </si>
-  <si>
     <t>10.100.10.1</t>
   </si>
   <si>
@@ -567,21 +566,12 @@
     <t>user</t>
   </si>
   <si>
-    <t xml:space="preserve">admin </t>
-  </si>
-  <si>
     <t>172.16.1.1</t>
   </si>
   <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
     <t>172.16.1.2</t>
   </si>
   <si>
-    <t>Colonne2</t>
-  </si>
-  <si>
     <t>Server</t>
   </si>
   <si>
@@ -628,13 +618,34 @@
   </si>
   <si>
     <t>cisco</t>
+  </si>
+  <si>
+    <t>Value 1</t>
+  </si>
+  <si>
+    <t>Value 2</t>
+  </si>
+  <si>
+    <t>Vlaue 3</t>
+  </si>
+  <si>
+    <t>redhat.intra</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>dontmessup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,12 +719,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -951,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1006,23 +1011,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1052,6 +1054,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1078,22 +1098,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2458,9 +2466,9 @@
   <tableColumns count="5">
     <tableColumn id="3" name="Function" dataDxfId="4"/>
     <tableColumn id="1" name="Variable" dataDxfId="3"/>
-    <tableColumn id="2" name="Value" dataDxfId="2"/>
-    <tableColumn id="4" name="Colonne1" dataDxfId="1"/>
-    <tableColumn id="5" name="Colonne2" dataDxfId="0"/>
+    <tableColumn id="2" name="Value 1" dataDxfId="2"/>
+    <tableColumn id="4" name="Value 2" dataDxfId="1"/>
+    <tableColumn id="5" name="Vlaue 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2759,22 +2767,21 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="13" width="15.5" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2863,7 +2870,7 @@
         <v>101,401,51,52</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2908,7 +2915,7 @@
         <v>102,402,51,52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>103,403,51,52</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2998,7 +3005,7 @@
         <v>104,404,51,52</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3043,7 +3050,7 @@
         <v>105,405,51,52</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3088,7 +3095,7 @@
         <v>106,406,51,52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -3133,7 +3140,7 @@
         <v>107,407,51,52</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3178,7 +3185,7 @@
         <v>108,408,51,52</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -3223,7 +3230,7 @@
         <v>109,409,51,52</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3268,7 +3275,7 @@
         <v>110,410,51,52</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3278,7 +3285,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:19">
       <c r="K17" s="9"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -3289,7 +3296,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:19">
       <c r="K18" s="9"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -3300,7 +3307,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:19">
       <c r="K19" s="9"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -3311,7 +3318,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:19">
       <c r="K20" s="9"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -3322,7 +3329,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:19">
       <c r="K21" s="9"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -3333,7 +3340,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:19">
       <c r="K22" s="9"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -3344,7 +3351,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:19">
       <c r="K23" s="9"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -3355,7 +3362,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:19">
       <c r="K24" s="9"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -3366,7 +3373,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:19">
       <c r="K25" s="9"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3377,7 +3384,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:19">
       <c r="K26" s="9"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -3388,7 +3395,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:19">
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -3399,7 +3406,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:19">
       <c r="K28" s="9"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -3410,7 +3417,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:19">
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -3426,6 +3433,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3437,17 +3449,17 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" thickTop="1">
       <c r="A1" s="5" t="s">
         <v>118</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -3493,7 +3505,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>101</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>102</v>
       </c>
@@ -3541,7 +3553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>103</v>
       </c>
@@ -3565,7 +3577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>201</v>
       </c>
@@ -3589,7 +3601,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>202</v>
       </c>
@@ -3613,7 +3625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>203</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>107</v>
       </c>
@@ -3661,7 +3673,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>108</v>
       </c>
@@ -3685,7 +3697,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>109</v>
       </c>
@@ -3709,146 +3721,146 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="13" spans="1:8" ht="15" thickBot="1"/>
+    <row r="14" spans="1:8" ht="16" thickTop="1" thickBot="1">
+      <c r="A14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="93" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" ht="93" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" thickTop="1" thickBot="1">
+      <c r="A16" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickTop="1">
+      <c r="A17" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" thickTop="1" thickBot="1">
+      <c r="A24" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickTop="1">
+      <c r="A25" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A25:E31"/>
@@ -3862,6 +3874,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3873,9 +3890,14 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3883,31 +3905,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" thickTop="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3955,7 +3977,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -4004,7 +4026,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -4053,7 +4075,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
@@ -4102,7 +4124,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -4151,7 +4173,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -4200,7 +4222,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -4249,7 +4271,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -4298,7 +4320,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -4347,7 +4369,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -4396,7 +4418,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -4445,7 +4467,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" thickTop="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4465,7 +4487,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4485,7 +4507,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4505,7 +4527,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4525,7 +4547,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="20.25" customHeight="1" thickTop="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4561,7 +4583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4598,7 +4620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4635,7 +4657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4672,7 +4694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4709,7 +4731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4746,7 +4768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -4783,7 +4805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -4820,7 +4842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -4857,7 +4879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -4894,7 +4916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15" thickBot="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4931,7 +4953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="16" thickTop="1" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4951,7 +4973,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15" thickBot="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4962,18 +4984,18 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="38" t="s">
+      <c r="K28" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="45"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="409.5" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4984,18 +5006,18 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="41" t="s">
+      <c r="K29" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="43"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="48"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5007,19 +5029,24 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="K28:P28"/>
     <mergeCell ref="K29:P29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
+    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5028,342 +5055,359 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C3" s="3">
         <v>45</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>139</v>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3">
         <v>65845</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D6" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C18" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="23">
+        <v>15</v>
+      </c>
+      <c r="E23" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="47">
-        <v>15</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="47"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>